--- a/relatorio/reports/S PINHEIRO GARCIA/2022/5-maio/recebimentos-vendas-report.xlsx
+++ b/relatorio/reports/S PINHEIRO GARCIA/2022/5-maio/recebimentos-vendas-report.xlsx
@@ -35,7 +35,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
